--- a/biology/Histoire de la zoologie et de la botanique/Paolo_Silvio_Boccone/Paolo_Silvio_Boccone.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paolo_Silvio_Boccone/Paolo_Silvio_Boccone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paolo Silvio Boccone (né le 24 avril 1633 à Palerme; mort le 22 décembre 1704 à Altofonte) est un botaniste et moine italien. Carl von Linné (1707-1778) lui a dédié le genre Bocconia de la famille des Papaveraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d’une famille noble, à Palerme, en 1633, il eut dès sa jeunesse une passion pour l’étude de l’histoire naturelle en général, et en particulier pour celle de la botanique. Il parcourut une grande partie de l'Europe occupé surtout de recherches botaniques, et partout il cherchait à former des liaisons avec les personnes qui cultivaient les mêmes sciences. À Paris, il eut l'occasion de connaître Jacques Barrelier. Il fit aussi connaissance avec l’abbé Bourdelot. Boccone lui fit part des différentes observations qu’il avait faites dans toutes les branches de l’histoire naturelle, et ces observations furent publiées à Amsterdam, en 1674, sous le titre de Recherches et Observations d’histoire naturelle. S’étant lié, à Londres, avec Charles Hatton, William Sherard et Robert Morison, celui-ci l’engagea à publier un ouvrage sur les plantes qu’il avait observées, et se chargea de le revoir et d’en diriger l’impression. Cet ouvrage parut à Oxford, sous le titre d’Icones et Descriptiones rariorum plantarum Siciliæ, Melitæ, Galliæ, et Italiæ, etc., Oxford, 1674, in-4°, avec  52 pl. Boccone séjourna ensuite à Venise, et le célèbre William Sherard, à qui il fit voir ses collections, le détermina à publier un autre ouvrage plus volumineux. Il a paru sous le titre de Museo di piante rare della Sicilia, Malta, Corsica, Italia, Piemonte e Germania, Venise, Zuccato, 1697, in-4°, avec 133 planches contenant 319 figures. Dans ces deux ouvrages, il se trouve environ cent vingt plantes qui n’avaient pas été bien connues précédemment.
 Boccone fut nommé botaniste de la cour du grand-duc de Toscane Ferdinand II (1610-1670), puis de son fils Cosme III (1642-1723). En 1682 il prit l’habit de l’Ordre cistercien, sous le nom de Silvio. De là vient que ses derniers ouvrages portent ce nom, au lieu de celui de Paolo. Il se retira dans un couvent de son ordre, près de Palerme, où il mourut le 22 décembre 1704, âgé de 71 ans. Renommé dans la communauté scientifique européenne, il fut en contact avec de nombreux naturalistes. Le Français Charles Plumier (1646-1704) étudia auprès de lui à Rome.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Recherches et Observations naturelles touchant le corail, la pierre étoilée, l’embrasement du mont Etna, dont il existe deux éditions, une de Paris, 1671, in-12, et une autre d’Amsterdam, 1674, in-8°, qui est plus ample que la première : c’est l’ouvrage dont on a parlé ci-dessus ; il fut aussi traduit en hollandais, Amsterdam, 1744, in-8°. Les Recherches sur l’embrasement de l’Etna sont aussi imprimées à part, Paris, 1673, in-12.
 Museo di fisica e di esperienze, variato e decorato di osservazioni naturali, e note medicinali, etc., Venise, 1697, in-4°, avec 18 planches gravées. Cet ouvrage avait été précédé d’une espèce de prospectus, qui fut publié en allemand, sous ce titre : Curiose Anmerkungen, etc., avec 4 planches, Francfort et Leipzig, 1694 et 1697, in-12.
